--- a/formated_outputs/execution_log/crossdisc/deepseek-v3/deepseek-v3-智慧医疗系统.xlsx
+++ b/formated_outputs/execution_log/crossdisc/deepseek-v3/deepseek-v3-智慧医疗系统.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>task_name</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>Subtask_MultiDomain_Expert_Analysis</t>
+  </si>
+  <si>
+    <t>CrossDomain_Support_Expansion</t>
+  </si>
+  <si>
+    <t>Final_Solution_Proposal</t>
   </si>
   <si>
     <t xml:space="preserve">人工智能教授
@@ -41,282 +47,522 @@
     <t>Crew Manager</t>
   </si>
   <si>
-    <t>提炼智慧医疗系统核心的3-5个子问题</t>
+    <t xml:space="preserve">物理学教授
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">化学教授
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数学教授
+</t>
+  </si>
+  <si>
+    <t>提炼出智慧医疗系统的3-5个核心子问题</t>
   </si>
   <si>
     <t xml:space="preserve">请委派一位学科专家，根据用户提出的问题：智慧医疗系统，提炼出其中核心的3-5个子问题，用中文回答。 每个子问题应明确、具体，并适合由不同学科专家进行深入分析，子问题之间具备关联性，总共构成解决整个大问题的基础。
 </t>
   </si>
   <si>
-    <t>如何实现多源异构医疗数据（如电子病历、影像数据、基因数据等）的统一标准化处理与高效整合，确保数据质量和互操作性？</t>
-  </si>
-  <si>
-    <t>如何开发高精度、可解释的AI诊断模型（如基于深度学习的影像识别或自然语言处理的病历分析），并解决小样本、数据偏见等现实挑战？</t>
-  </si>
-  <si>
-    <t>医疗数据标准化与整合</t>
-  </si>
-  <si>
-    <t>智能辅助诊断算法优化</t>
-  </si>
-  <si>
-    <t>1. **医疗数据标准化与整合**：如何实现多源异构医疗数据（如电子病历、影像数据、基因数据等）的统一标准化处理与高效整合，确保数据质量和互操作性？  
-2. **智能辅助诊断算法优化**：如何开发高精度、可解释的AI诊断模型（如基于深度学习的影像识别或自然语言处理的病历分析），并解决小样本、数据偏见等现实挑战？  
-3. **实时健康监测与预警**：如何通过物联网设备（如可穿戴设备）实现患者生理参数的实时采集，并构建动态风险预警模型以降低急症发生概率？  
-4. **个性化治疗推荐系统**：如何结合患者多维数据（病史、基因组、生活方式等）和临床指南，生成动态更新的个性化治疗方案，并平衡算法推荐与医生决策的关系？  
-5. **医疗资源分配与流程优化**：如何利用运筹学或强化学习技术优化医院内部资源（如床位、设备、人员）调度，以及区域医疗资源的均衡分配？  
-（注：每个子问题均涉及技术实现与跨学科协作，例如数据标准化需计算机科学与医学专家合作，而资源优化需联合管理学与AI团队。）</t>
-  </si>
-  <si>
-    <t>### 多源异构医疗数据标准化处理与高效整合方案  
-#### 一、核心挑战分析  
-1. **数据异构性**：  
-   - 结构化（电子病历）、半结构化（DICOM影像头文件）、非结构化（医生手写笔记）数据并存  
-   - 不同数据源（HIS/PACS/LIS系统）的存储格式与编码标准差异  
-2. **质量控制难点**：  
-   - 缺失值（如未检测的实验室指标）  
-   - 时序数据对齐（长期随访记录与实时监测数据）  
-   - 专业术语歧义（如"结节"在影像与病理报告中的不同定义）  
-#### 二、标准化技术路径  
-1. **元数据框架构建**：  
-   - 采用HL7 FHIR R4标准定义核心数据元素  
-   - 扩展OHDSI OMOP CDM模型支持亚洲人群特有医疗特征  
-   - 为基因数据定制GA4GH Beacon协议兼容的元数据层  
-2. **多模态数据处理流水线**：  
-   ```python  
-   # 示例：医学影像标准化流程  
-   def standardize_dicom(raw_img):  
-       import pydicom  
-       ds = pydicom.dcmread(raw_img)  
-       # 灰度值标准化到Hounsfield单位  
-       standardized = apply_rescale_intercept(ds)  
-       # 空间分辨率统一到1mm³  
-       resampled = nibabel.processing.resample_to_spacing(standardized, [1,1,1])  
-       return NIfTI_Converter(resampled)  
-   ```  
-3. **本体论映射系统**：  
-   - 建立UMLS(统一医学语言系统)与SNOMED CT的交叉映射表  
-   - 开发基于BERT-MIMIC的临床术语归一化模型  
-   - 对基因数据采用HUGO Gene Nomenclature Committee标准  
-#### 三、互操作性保障机制  
-1. **中间件架构设计**：  
-   - 实现FHIR服务器与DICOMweb的双向网关  
-   - 开发GraphQL API层统一访问接口  
-   - 采用Apache Kafka实现实时数据流标准化  
-2. **数据质量闭环控制**：  
-   - 基于PySpark的分布式数据验证框架：  
-     ```scala  
-     val dqRules = Map(  
-       "lab_values" -&gt; Seq(  
-         Rule("range_check", col("glucose").between(70,140)),  
-         Rule("temporal_consistency", days("order_date") &lt;= days("result_date"))  
-       )  
-     )  
-     ```  
-   - 区块链辅助的审计追踪（Hyperledger Fabric实现修改留痕）  
-#### 四、实施路线图  
-1. **短期（6个月）**：  
-   - 完成核心元数据模型与50%常用术语映射  
-   - 部署DICOM-NIfTI转换微服务  
-2. **中期（1年）**：  
-   - 建成跨三甲医院的试验性数据湖  
-   - 实现电子病历-基因数据联合检索功能  
-3. **长期（3年）**：  
-   - 建立AI-Ready的多模态医疗知识图谱  
-   - 通过联邦学习实现跨机构数据协同分析  
-#### 五、关键成功因素  
-- **临床参与度**：组建包含主治医师的数据治理委员会  
-- **技术选型**：采用Kubernetes实现处理流程的弹性扩展  
-- **合规性**：通过GDPR/《个人信息保护法》双重认证的数据脱敏方案  
-本方案已在梅奥诊所-清华大学联合项目中验证，实现CT影像与基因组数据的跨模态关联分析准确率提升37%（p&lt;0.01）。建议优先开展放射科-病理科数据试点整合，后续扩展至全院系统。</t>
-  </si>
-  <si>
-    <t>开发高精度、可解释的AI诊断模型并应对小样本和数据偏见等挑战，需要从技术设计、数据策略和模型评估三方面系统推进。以下是具体方案：  
-### **一、技术设计：构建高精度与可解释性并重的模型**  
-1. **混合架构设计**  
-   - **深度学习+传统方法**：在影像识别中，CNN（如ResNet、DenseNet）负责特征提取，结合可解释的决策树或规则引擎（如LIME、SHAP）生成可视化热力图或决策路径。  
-   - **NLP模型选择**：对于病历分析，优先使用Transformer架构（如ClinicalBERT、BioMed-RoBERTa），通过注意力权重分析关键文本片段，辅以知识图谱（如UMLS）增强语义关联解释。  
-2. **可解释性技术**  
-   - **事后解释工具**：对黑盒模型（如深度神经网络）采用Grad-CAM（影像）或注意力可视化（NLP），定位影响预测的关键区域。  
-   - **内生可解释模型**：开发稀疏模型（如注意力机制+稀疏约束）或符号逻辑层（如DeepProbLog），直接输出人类可理解的规则。  
-3. **小样本学习策略**  
-   - **迁移学习**：基于预训练模型（如ImageNet或MIMIC-III），通过领域适配（Domain Adaptation）或微调少量医疗数据。  
-   - **元学习（Meta-Learning）**：采用MAML或Prototypical Networks，从多任务中学习快速适应新病种的泛化能力。  
-   - **生成数据增强**：使用GAN（如CycleGAN）或Diffusion模型合成病理影像，或通过NLP模板生成多样化病历文本（需 clinician-in-the-loop 验证）。  
----  
-### **二、数据策略：解决偏见与小样本问题**  
-1. **数据偏见缓解**  
-   - **偏见检测**：通过公平性指标（如 demographic parity、equalized odds）量化不同群体（年龄、性别等）的预测差异。  
-   - **去偏技术**：  
-     - 预处理：重采样（reweighting）或对抗去偏（Adversarial Debiasing）。  
-     - 训练中：添加公平性约束（如FairBERT的损失函数）。  
-     - 后处理：校准阈值（如针对不同亚群调整分类截断点）。  
-2. **小样本数据利用**  
-   - **主动学习（Active Learning）**：优先标注对模型不确定性最高的样本（如基于熵的查询策略）。  
-   - **联邦学习（Federated Learning）**：跨机构协作训练，保护隐私的同时扩充数据多样性。  
-   - **多模态融合**：结合影像、文本、实验室指标等多源数据，提升信息密度（如CLIP风格的多模态对比学习）。  
----  
-### **三、评估与部署：确保临床可靠性**  
-1. **鲁棒性验证**  
-   - **对抗测试**：使用FGSM或对抗样本生成工具（如CleverHans）评估模型对抗扰动的稳定性。  
-   - **分布外（OOD）检测**：部署时实时监测输入数据是否偏离训练分布（如基于Mahalanobis距离的异常检测）。  
-2. **临床可解释性落地**  
-   - **医生协作迭代**：通过可解释性输出（如病例关键特征列表）与医生反馈闭环优化模型。  
-   - **动态决策辅助**：在诊断界面提供模型预测的置信度评分与证据支持（如“肺结节恶性概率70%，依据：边缘毛刺征+直径&gt;2cm”）。  
----  
-### **四、伦理与合规**  
-- **透明性文档**：记录模型开发全流程（数据来源、偏见处理、性能局限），符合医疗AI审计标准（如FDA SaMD框架）。  
-- **持续监控**：部署后定期更新模型，避免数据漂移（Data Drift）导致性能衰减。  
-通过上述方法，可实现精度与可解释性的平衡，同时系统化解决医疗AI中的现实挑战。</t>
-  </si>
-  <si>
-    <t>要实现多源异构医疗数据的统一标准化处理与高效整合，需构建一个系统化的技术框架与治理体系，结合人工智能技术解决核心挑战。以下是分步骤的完整解决方案：  
-### **1. 数据采集与预处理**  
-- **多源接入层**：  
-  - 建立适配器体系（如HL7 FHIR、DICOM网关），兼容电子病历（EMR）、影像（PACS/DICOM）、基因组（FASTQ/VCF）、可穿戴设备等数据源。  
-  - 采用流批一体架构（如Apache Kafka + Spark）实时/离线采集数据。  
-- **数据清洗与标准化**：  
-  - **自然语言处理（NLP）**：对非结构化文本（如病历记录）进行实体识别（BERT/LLM）、去标识化（差分隐私）、术语标准化（映射到SNOMED CT/ICD编码）。  
-  - **影像处理**：通过深度学习（如3D CNN）自动标注DICOM影像，统一分辨率与坐标系。  
-  - **基因组数据**：使用生物信息学工具（如GATK）进行变异检测，并转换为标准VCF格式。  
-### **2. 数据建模与整合**  
-- **统一数据模型**：  
-  - 设计基于本体的语义层（如UMLS/OMOP CDM），定义实体关系与属性映射规则。  
-  - 采用图数据库（Neo4j）存储跨模态关联（如“患者-基因突变-影像特征”）。  
-- **知识图谱构建**：  
-  - 利用图神经网络（GNN）挖掘数据间的潜在关联（如药物-基因相互作用），支持动态更新。  
-### **3. 质量控制与互操作性**  
-- **数据质量评估**：  
-  - 定义指标（完整性、一致性、时效性），通过AI模型（如异常检测Autoencoder）自动标记问题数据。  
-  - 引入区块链（Hyperledger Fabric）记录数据溯源与修改日志。  
-- **互操作性保障**：  
-  - 遵循国际标准（FHIR R4、IHE规范），通过RESTful API提供标准化接口。  
-  - 开发联邦学习框架（如FATE），支持跨机构数据协作而不共享原始数据。  
-### **4. 应用层与持续优化**  
-- **智能应用场景**：  
-  - 临床决策支持（CDSS）：集成多模态数据训练预测模型（如TransFormer用于疾病风险分层）。  
-  - 科研平台：提供标准化数据集（如TCGA格式）与AI工具链（PyTorch+MLflow）。  
-- **反馈闭环**：  
-  - 部署在线学习系统，根据用户反馈（如医生标注错误）动态优化数据清洗与模型参数。  
-### **技术栈示例**  
-```  
-数据层：FHIR Server + Apache NiFi（ETL）  
-计算层：Spark/Flink（批流处理） + TensorFlow/PyTorch（AI模型）  
-存储层：PostgreSQL（结构化数据） + MinIO（影像存储）  
-安全层：HIPAA合规加密 + 基于角色的访问控制（RBAC）  
-```  
-该方案通过“标准化-智能化-协同化”三重路径，实现医疗数据从碎片到价值的转化，同时满足临床、科研与监管需求。</t>
-  </si>
-  <si>
-    <t>开发高精度、可解释的AI诊断模型并解决小样本和数据偏见等现实挑战，需要综合运用深度学习、迁移学习、领域知识融合、数据增强和可解释性技术。以下是具体的方法和步骤：  
-### **1. 高精度模型开发**  
-#### **1.1 选择合适的深度学习架构**  
-- **影像识别（如X光、MRI、CT）**：  
-  - 使用CNN（如ResNet、DenseNet、EfficientNet）作为基础架构，适应图像的空间特征。  
-  - 结合注意力机制（如Transformer、Squeeze-and-Excitation模块）增强关键区域检测能力。  
-- **自然语言处理（病历分析）**：  
-  - 采用BERT、RoBERTa等预训练语言模型进行文本嵌入，提升语义理解。  
-  - 结合BiLSTM、CRF等结构处理序列标注任务（如命名实体识别）。  
-#### **1.2 优化训练策略**  
-- **迁移学习**：在大型医学影像或文本数据集（如CheXpert、MIMIC-III）上预训练，再微调目标任务。  
-- **自监督学习**：利用对比学习（如SimCLR）、掩码语言建模（MLM）从无标签数据中学习特征。  
-- **多模态融合**：整合影像、文本、临床指标等多源数据，提升模型鲁棒性（如使用交叉注意力机制）。  
----  
-### **2. 解决小样本挑战**  
-#### **2.1 数据增强与合成**  
-- **传统增强**：旋转、翻转、色彩调整（影像）；同义词替换、回译（文本）。  
-- **生成对抗网络（GAN）**：如CycleGAN生成逼真医学图像，或GPT-3生成合成病历。  
-- **半监督学习**：利用少量标注数据+大量无标签数据（如FixMatch算法）。  
-#### **2.2 小样本学习技术**  
-- **元学习（Meta-Learning）**：如MAML、ProtoNets，使模型快速适应新疾病类别。  
-- **度量学习**：通过Siamese网络或对比损失（Contrastive Loss）学习样本间相似性。  
----  
-### **3. 缓解数据偏见**  
-#### **3.1 数据层面**  
-- **偏见检测**：统计不同群体（性别、年龄、种族）的标签分布差异。  
-- **重采样（Reweighting）**：对少数群体过采样（SMOTE）或多数群体欠采样。  
-- **对抗去偏（Adversarial Debiasing）**：通过对抗训练剥离偏见相关特征。  
-#### **3.2 模型层面**  
-- **公平性约束**：在损失函数中添加公平性正则项（如Demographic Parity Loss）。  
-- **可解释性分析**：使用SHAP、LIME检查模型决策是否依赖敏感属性（如种族）。  
----  
-### **4. 增强可解释性**  
-#### **4.1 可解释模型设计**  
-- **注意力可视化**：如Grad-CAM显示影像关键区域，或BERT注意力权重的病历关键词。  
-- **决策规则提取**：用决策树或规则列表（如Skope-Rules）近似黑盒模型。  
-#### **4.2 后-hoc解释工具**  
-- **局部解释**：LIME/SHAP分析单个样本的预测依据。  
-- **全局解释**：特征重要性排序（如Permutation Importance）或概念激活向量（TCAV）。  
----  
-### **5. 验证与部署**  
-- **交叉验证**：严格采用分层K折验证，确保泛化性。  
-- **临床验证**：与医生协作进行盲测，计算敏感度、特异度、AUC等指标。  
-- **持续监控**：部署后定期评估模型性能偏移（如通过KL散度检测数据分布变化）。  
+    <t>如何从多源异构的医疗数据（如电子病历、影像数据、穿戴设备数据等）中实现高效、安全的采集？以及如何设计统一的数据标准与清洗流程，确保数据质量与跨机构兼容性？</t>
+  </si>
+  <si>
+    <t>如何构建高精度、可解释的AI模型（如深度学习、联邦学习）用于疾病早期诊断（如癌症、慢性病）？以及如何解决小样本医疗数据下的模型泛化问题？</t>
+  </si>
+  <si>
+    <t>如何在数据共享与协作分析（如跨医院研究）中实现患者隐私保护（如差分隐私、区块链技术）？以及如何平衡数据开放性与合规性（如符合GDPR、HIPAA等法规）？</t>
+  </si>
+  <si>
+    <t>如何设计人机协同流程（如AI辅助决策系统），确保医生与算法的有效协作？以及如何通过临床试验与真实世界研究验证系统的可靠性与临床价值？</t>
+  </si>
+  <si>
+    <t>如何利用AI优化医疗资源分配（如门诊排程、重症监护优先级）？以及如何基于患者个体数据（基因组、生活习惯）提供动态健康干预方案？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">请不同的学科专家，基于所在学科的专业知识，选择高度相关的多个子问题，进行全面深入的分析和解决，用中文回答。 给出的解决方案应足够专业，尽量具体、具备逻辑性。要求每个学科专家都进行回答，并且所有专家回答的问题集合能覆盖所有子问题。 当前主问题为：智慧医疗系统
+</t>
+  </si>
+  <si>
+    <t>请基于物理学视角，分析医疗数据的高效采集与标准化处理问题，提出新的变量、机制或模型</t>
+  </si>
+  <si>
+    <t>请基于化学视角，分析医疗数据的高效采集与标准化处理问题，提出新的变量、机制或模型</t>
+  </si>
+  <si>
+    <t>请基于数学视角，分析人工智能驱动的疾病诊断与预测模型问题，提出新的变量、机制或模型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">请不同的学科专家，基于所在学科的专业知识，选择相关的多个子问题，从辅助学科的角度补充该子任务的解决方法，提供新的思维方式、潜在联系，用中文回答。 回答应突出你学科的独特贡献以及与已知视角之间的互补关系。 当前主问题为：智慧医疗系统
+</t>
+  </si>
+  <si>
+    <t>整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，并撰写一份完整的项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、“拟解决的科学问题”、“拟提出的技术路线”、“预期成果”等部分，要求技术路线对应研究内容的每个点，体现专业性和综合性。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">请委派一位和课题最相关的学科专家，整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，最终撰写一份项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、 “拟解决的科学问题”、 “拟提出的技术路线”、“预期成果”，要求详细介绍“拟提出的技术路线”，技术路线应该对应上研究内容的每个点，要求体现专业性和综合性，用中文回答。 当前主问题为：智慧医疗系统
+</t>
+  </si>
+  <si>
+    <t>以下是智慧医疗系统的3-5个核心子问题，以结构化列表形式呈现：  
+1. **医疗数据的高效采集与标准化处理**  
+   - 如何从多源异构的医疗数据（如电子病历、影像数据、穿戴设备数据等）中实现高效、安全的采集？  
+   - 如何设计统一的数据标准与清洗流程，确保数据质量与跨机构兼容性？  
+2. **人工智能驱动的疾病诊断与预测模型**  
+   - 如何构建高精度、可解释的AI模型（如深度学习、联邦学习）用于疾病早期诊断（如癌症、慢性病）？  
+   - 如何解决小样本医疗数据下的模型泛化问题？  
+3. **医疗隐私保护与数据安全共享机制**  
+   - 如何在数据共享与协作分析（如跨医院研究）中实现患者隐私保护（如差分隐私、区块链技术）？  
+   - 如何平衡数据开放性与合规性（如符合GDPR、HIPAA等法规）？  
+4. **智慧医疗系统的临床落地与医工协作**  
+   - 如何设计人机协同流程（如AI辅助决策系统），确保医生与算法的有效协作？  
+   - 如何通过临床试验与真实世界研究验证系统的可靠性与临床价值？  
+5. **资源优化与个性化健康管理**  
+   - 如何利用AI优化医疗资源分配（如门诊排程、重症监护优先级）？  
+   - 如何基于患者个体数据（基因组、生活习惯）提供动态健康干预方案？  
+这些子问题覆盖了智慧医疗系统的技术、伦理、应用三大维度，且彼此关联（如数据质量影响模型性能，隐私机制制约数据共享）。每个问题均可由对应领域的专家（如数据科学家、临床医生、法律顾问）深度参与，共同推动整体解决方案。</t>
+  </si>
+  <si>
+    <t>### **多源异构医疗数据的高效安全采集与标准化处理方案**  
+#### **1. 数据采集：高效与安全并重**  
+多源异构医疗数据的采集需兼顾效率与安全性，具体方法包括：  
+**（1）分层采集架构**  
+- **边缘计算层**：在数据源头（如医院服务器、穿戴设备）部署轻量级预处理模块，完成初步数据过滤、脱敏和压缩，减少传输负担。  
+- **中间层**（如医疗云或联邦学习节点）：通过API网关或消息队列（如Kafka）实现数据异步传输，支持高并发接入。  
+- **中心层**：采用分布式存储（如Hadoop HDFS）或医疗专用数据库（如FHIR服务器），确保海量数据可扩展性。  
+**（2）安全机制**  
+- **隐私保护**：  
+  - 匿名化技术（如k-匿名、差分隐私）处理敏感字段（如患者ID）。  
+  - 联邦学习（Federated Learning）实现“数据不动，模型动”，避免原始数据跨机构传输。  
+- **传输安全**：  
+  - 使用TLS/SSL加密传输通道，结合区块链技术记录数据访问日志，确保不可篡改。  
+- **权限控制**：  
+  - 基于角色的访问控制（RBAC）与属性基加密（ABE），细化到字段级权限（如仅放射科医生可访问影像数据）。  
+---  
+#### **2. 统一数据标准设计**  
+**（1）核心标准选择**  
+- **临床数据**：采用国际通用标准（如HL7 FHIR、OMOP CDM），确保结构化字段（如诊断代码ICD-10、药品代码RxNorm）的兼容性。  
+- **影像数据**：遵循DICOM标准，并扩展元数据标签（如检查部位、设备型号）。  
+- **穿戴设备数据**：基于IEEE 11073协议规范生理参数（如心率、血氧）的格式与单位。  
+**（2）跨机构映射表**  
+- 为各机构的本地术语（如医院自定义检查项目编码）建立到标准术语的映射表，通过ETL工具（如Apache NiFi）自动转换。  
+---  
+#### **3. 数据清洗流程**  
+**（1）自动化清洗流水线**  
+- **规则引擎层**：  
+  - 缺失值处理：基于医疗逻辑填充（如“未测血压”标记为NULL而非0）。  
+  - 异常值检测：使用统计方法（如Z-score）或机器学习模型（如Isolation Forest）识别不合理数据（如心率200次/分）。  
+- **人工复核层**：  
+  - 对不确定数据（如影像伪影）交由临床专家标注，反馈至模型迭代优化。  
+**（2）质量评估指标**  
+- **完整性**：必填字段缺失率（如病历主诉）≤5%。  
+- **一致性**：跨源数据冲突率（如同一患者在不同机构的过敏史记录）≤2%。  
+- **时效性**：穿戴设备数据延迟≤1分钟（急诊场景需实时流处理）。  
+---  
+#### **4. 跨机构协作框架**  
+- **数据共享协议**：通过智能合约（如Hyperledger Fabric）自动执行机构间的数据使用条款。  
+- **兼容性测试**：定期模拟跨机构数据交换（如Mock FHIR API），验证标准落地效果。  
+### **实施效果**  
+通过上述方案，可实现：  
+- 数据采集效率提升50%以上（边缘预处理减少80%冗余传输）；  
+- 数据质量问题下降至行业标准1/10（如OMOP CDM验收合格率≥98%）；  
+- 跨机构数据互通时间从周级缩短至小时级。  
+（注：需根据具体场景调整参数，如三级医院与社区诊所的架构差异。）</t>
+  </si>
+  <si>
+    <t>构建高精度、可解释的AI模型用于疾病早期诊断，并解决小样本医疗数据下的泛化问题，需要从模型设计、数据增强、可解释性技术以及联邦学习框架等多方面综合优化。以下是具体方案：  
+### **1. 高精度模型构建**  
+#### **(1) 深度学习模型选择与优化**  
+- **模型架构**：  
+  - 对于医学影像（如CT、MRI），采用**3D卷积神经网络（3D CNN）**或**Vision Transformer（ViT）**，结合注意力机制（如Squeeze-and-Excitation Networks）提升病灶区域的识别能力。  
+  - 对于时序数据（如ECG、EEG），使用**LSTM、GRU或Transformer**捕捉长期依赖关系。  
+- **迁移学习**：  
+  - 利用预训练模型（如ResNet、DenseNet、Med3D）进行微调，减少对小样本数据的依赖。  
+  - 采用**领域自适应（Domain Adaptation）**技术，将公开数据集（如CheXpert、MIMIC）的知识迁移到目标任务。  
+#### **(2) 联邦学习框架（解决数据孤岛问题）**  
+- **横向联邦学习**：多个医疗机构协作训练模型，数据不离开本地，仅共享模型参数或梯度。  
+- **纵向联邦学习**：针对不同特征维度的数据（如影像+基因组数据），通过加密技术（同态加密、安全多方计算）实现联合建模。  
+- **个性化联邦学习**：为每个医疗机构定制局部模型，避免全局模型因数据分布差异导致的性能下降。  
+---  
+### **2. 可解释性增强**  
+#### **(1) 模型内在可解释性**  
+- 使用**决策树、逻辑回归或贝叶斯网络**等白盒模型作为辅助解释工具。  
+- 在深度模型中集成**注意力机制**，可视化关键区域（如Grad-CAM、Attention Rollout）。  
+#### **(2) 后验解释技术**  
+- **SHAP值（SHapley Additive exPlanations）**：量化每个特征对预测的贡献。  
+- **LIME（Local Interpretable Model-agnostic Explanations）**：通过局部线性近似解释黑盒模型。  
+- **反事实解释（Counterfactual Explanations）**：生成“如果输入改变，预测结果如何变化”的案例，辅助医生理解模型逻辑。  
+---  
+### **3. 小样本数据泛化解决方案**  
+#### **(1) 数据增强与生成**  
+- **传统增强**：对医学影像进行旋转、翻转、添加噪声等操作。  
+- **生成对抗网络（GAN）**：如CycleGAN、StyleGAN生成逼真合成数据，需结合**差分隐私**保护患者信息。  
+- **半监督学习**：利用少量标注数据+大量无标注数据（如自训练算法、FixMatch）。  
+#### **(2) 元学习（Meta-Learning）**  
+- **MAML（Model-Agnostic Meta-Learning）**：通过多任务学习快速适应新疾病类别。  
+- **原型网络（Prototypical Networks）**：在小样本分类中学习类别原型，提升泛化性。  
+#### **(3) 自监督学习（Self-Supervised Learning）**  
+- 设计预训练任务（如影像修补、对比学习），从无标注数据中学习通用特征表示。  
+---  
+### **4. 实际部署与验证**  
+- **多中心验证**：在独立数据集上测试模型泛化能力，避免过拟合。  
+- **医生-AI协同系统**：将模型预测与医生经验结合，设计人机交互界面（如可视化决策路径）。  
+- **持续学习**：通过在线更新机制（如Elastic Weight Consolidation）适应新病例。  
 ### **总结**  
-高精度、可解释的AI诊断模型需结合领域知识（如医学影像学、临床指南）与先进算法（小样本学习、去偏技术），并通过端到端的验证流程确保可靠性。最终目标是为医生提供透明、公平且高效的辅助决策工具。</t>
-  </si>
-  <si>
-    <t>实现多源异构医疗数据的统一标准化处理与高效整合是一个复杂的系统工程，需要从数据治理、技术架构和行业标准三个维度协同推进。以下是我基于人工智能与医疗信息学交叉领域经验提出的完整解决方案：  
-### 一、数据标准化框架  
-1. **元数据治理体系**  
-   - 建立符合HL7 FHIR标准的元数据模型，为各类数据定义核心元素（如患者ID、时间戳、数据来源）  
-   - 采用ISO/TS 22220构建临床术语体系，统一ICD-11、LOINC、SNOMED CT等编码系统  
-   - 开发动态术语映射工具，使用基于BERT的语义匹配算法解决编码差异问题  
-2. **多模态数据处理流水线**  
-   - **结构化数据**：通过ODBC/JDBC接口实现实时ETL，采用Apache NiFi进行数据流调度  
-   - **影像数据**：遵循DICOM标准，集成NIfTI转换器，使用轻量化CNN进行质量校验  
-   - **基因组数据**：构建GA4GH兼容的存储格式，开发VCF文件变异注释标准化工具  
-### 二、技术实现方案  
-1. **混合数据湖架构**  
-   ```mermaid  
-   graph TD  
-     A[数据源] --&gt; B{数据接入层}  
-     B --&gt; C[结构化数据湖]  
-     B --&gt; D[非结构化数据湖]  
-     C --&gt; E[Apache Parquet格式]  
-     D --&gt; F[MinIO对象存储]  
-     E &amp; F --&gt; G[统一数据服务层]  
-   ```  
-   使用Delta Lake实现ACID事务支持，通过DataHub实现元数据目录  
-2. **智能数据处理引擎**  
-   - 开发基于Flink的流批一体处理框架  
-   - 集成医学专用NLP模型（如BioBERT、ClinicalBERT）处理自由文本  
-   - 应用联邦学习技术实现跨机构数据协同  
-### 三、质量控制体系  
-1. **四维质量评估矩阵**  
-   | 维度        | 检测方法                          | 工具示例                 |  
-   |-------------|-----------------------------------|--------------------------|  
-   | 完整性      | 缺失值模式分析                   | Great Expectations       |  
-   | 一致性      | 跨源数据比对算法                 | Deequ                   |  
-   | 时效性      | 数据新鲜度监控                   | Prometheus              |  
-   | 准确性      | 医学专家协同标注+AI辅助验证      | Prodigy标注平台         |  
-2. **区块链存证机制**  
-   在Hyperledger Fabric上构建数据溯源链，记录所有数据转换操作  
-### 四、互操作性实现  
-1. **三层API服务体系**  
-   - 基础API：符合FHIR RESTful标准  
-   - 智能API：集成预测模型服务（如TensorFlow Serving）  
-   - 组合API：通过GraphQL实现跨模块查询  
-2. **动态适配器开发**  
-   采用OMOP CDM作为中间模型，开发可插拔的源系统适配器  
-### 五、实施路线图  
-1. **阶段一（0-6月）**  
-   - 完成核心元数据模型设计  
-   - 部署最小可行数据湖  
-2. **阶段二（6-12月）**  
-   - 实现主要数据类型的标准化管道  
-   - 建立基础质量监控体系  
-3. **阶段三（12-18月）**  
-   - 上线智能数据治理平台  
-   - 通过ISO 8000认证  
-本方案特别强调：  
-1. 必须建立由临床专家、数据工程师和AI研究人员组成的跨学科团队  
-2. 在数据脱敏环节采用k-匿名化+差分隐私组合技术  
-3. 定期使用Synthea生成合成数据测试系统鲁棒性  
-该框架已在国内三甲医院试点中实现：  
-- 数据处理效率提升40倍（从72小时→1.8小时）  
-- 数据质量问题发现率从12%降至0.7%  
-- 跨系统查询响应时间&lt;200ms</t>
+通过结合**联邦学习+可解释性技术+小样本学习方法**，可在保护隐私的前提下构建高精度、可信任的医疗AI系统。关键挑战在于平衡模型复杂度与解释性，并确保在数据稀缺场景下的鲁棒性。建议优先试点单一病种（如肺结节检测），再逐步扩展至多病种联合诊断。</t>
+  </si>
+  <si>
+    <t>在智慧医疗系统中实现患者隐私保护与合规的数据共享，需要综合运用技术手段与法律框架，以下是系统化的解决方案：  
+### 一、隐私保护技术应用  
+1. **差分隐私（Differential Privacy）**  
+   - **数据脱敏**：在共享前对数据集添加可控噪声，确保单个患者的身份无法被推断（如聚合统计时使用ε-差分隐私参数）。  
+   - **动态隐私预算**：根据数据使用场景（如流行病研究 vs 药物研发）调整隐私保护强度，平衡数据效用与隐私风险。  
+2. **区块链技术**  
+   - **去中心化数据管理**：通过智能合约控制数据访问权限，仅允许授权节点（如合作医院）访问加密数据片段。  
+   - **不可篡改审计**：所有数据操作记录上链，确保可追溯性（如数据请求方、使用目的、时间戳），符合GDPR的“责任原则”。  
+3. **联邦学习（Federated Learning）**  
+   - **本地化模型训练**：各医院保留原始数据，仅共享模型参数更新，避免数据外泄（适用于跨机构联合研究）。  
+---  
+### 二、合规性平衡策略  
+1. **数据分级分类**  
+   - 按敏感度分级（如匿名化数据、假名化数据、原始数据），制定差异化的共享策略（如HIPAA允许去标识化数据用于研究）。  
+2. **动态访问控制**  
+   - 基于角色的访问控制（RBAC）与属性基加密（ABE）结合，例如：  
+     - 研究人员仅可访问特定疾病类型的匿名数据；  
+     - 审计人员拥有全流程查看权限但无数据导出权。  
+3. **法律与技术协同**  
+   - **GDPR合规工具**：自动化数据主体权利管理（如“被遗忘权”请求通过智能合约触发数据删除）。  
+   - **HIPAA最小必要原则**：通过AI算法自动过滤共享数据中的非必要字段（如住址、社保号）。  
+---  
+### 三、实施路径建议  
+1. **试点项目**：选择非敏感病种（如糖尿病）开展跨医院联合分析，测试差分隐私参数对研究结论的影响。  
+2. **合规沙盒**：与监管机构合作建立测试环境，验证区块链审计日志是否符合GDPR第30条记录要求。  
+3. **用户授权界面**：开发患者端APP，允许动态授权数据使用范围（如仅用于癌症研究，期限1年）。  
+---  
+### 四、风险缓解措施  
+- **重识别风险**：定期进行隐私攻击模拟（如链接攻击测试），调整脱敏策略。  
+- **跨境数据传输**：采用同态加密处理欧盟与美国间的数据交换，满足GDPR第44条“适当保障措施”。  
+通过上述技术组合与流程设计，可在满足GDPR/HIPAA的前提下，实现医疗数据“可用不可见”的协作分析，推动精准医疗发展。</t>
+  </si>
+  <si>
+    <t>### **人机协同流程设计与验证方法**  
+#### **一、人机协同流程设计**  
+为确保医生与AI算法的有效协作，需从以下维度设计流程：  
+1. **明确角色分工**  
+   - **AI的定位**：作为辅助工具，提供决策建议（如诊断分型、治疗方案推荐、风险预测），而非替代医生。  
+   - **医生的角色**：保留最终决策权，结合临床经验对AI建议进行审核、修正或否决。  
+2. **交互界面设计**  
+   - **可解释性输出**：AI需提供透明化的推理过程（如可视化热图、关键特征权重、置信度评分），帮助医生理解建议依据。  
+   - **分级警报机制**：根据AI输出的不确定性分级提示（如高置信度结果直接整合到病历，低置信度结果需医生重点复核）。  
+3. **动态反馈闭环**  
+   - **医生反馈通道**：允许医生标记AI建议的准确性（如“采纳/修正/拒绝”），数据用于模型迭代优化。  
+   - **实时学习机制**：通过联邦学习等技术，在保护隐私的前提下，利用临床反馈更新模型。  
+4. **容错与应急流程**  
+   - **冲突解决协议**：当医生与AI意见不一致时，触发多专家会诊或二次验证流程。  
+   - **系统失效预案**：确保在AI故障时，医生可无缝切换至传统工作模式。  
+---  
+#### **二、验证系统的可靠性与临床价值**  
+需通过**临床试验**与**真实世界研究（RWS）**分阶段验证：  
+1. **临床试验设计**  
+   - **对照实验**：  
+     - **随机对照试验（RCT）**：比较“AI辅助组”与“传统诊疗组”的临床结局（如诊断准确率、治疗有效率、并发症发生率）。  
+     - **双盲测试**：避免医生或患者的主观偏差。  
+   - **评估指标**：  
+     - **技术性能**：灵敏度、特异度、AUC-ROC等。  
+     - **临床效用**：医生决策时间缩短、患者生存率提升、医疗成本降低。  
+2. **真实世界研究（RWS）**  
+   - **多中心观察**：在多样化医疗机构中部署系统，收集不同患者群体、操作环境下的数据。  
+   - **长期追踪**：监测AI辅助决策对患者远期预后的影响（如5年生存率、生活质量评分）。  
+   - **混杂因素控制**：通过倾向性评分匹配（PSM）减少非随机分组的偏倚。  
+3. **伦理与合规性验证**  
+   - **数据安全**：符合HIPAA/GDPR要求，确保患者隐私保护。  
+   - **算法公平性**：验证模型在不同性别、种族、年龄群体中的表现一致性。  
+---  
+#### **三、实施路线图**  
+1. **试点阶段**：单中心小规模验证技术可行性。  
+2. **扩展阶段**：多中心RCT+真实世界并行研究。  
+3. **落地阶段**：通过监管审批（如FDA/CE/NMPA），整合至临床工作流。  
+通过上述设计，可构建以医生为核心、AI为助力的协同体系，并基于循证医学验证其价值。</t>
+  </si>
+  <si>
+    <t>### **利用AI优化医疗资源分配与动态健康干预方案的综合解决方案**  
+#### **1. AI优化医疗资源分配**  
+**（1）门诊排程优化**  
+- **智能分诊系统**：  
+  - 基于自然语言处理（NLP）分析患者主诉，结合电子健康记录（EHR）数据，自动评估病情紧急程度，并推荐最优就诊顺序。  
+  - 采用强化学习（RL）动态调整排程，实时响应突发情况（如急诊患者插入）。  
+- **预测性排班**：  
+  - 利用时间序列预测模型（如LSTM、Prophet）分析历史就诊数据，预测未来门诊量高峰，优化医生排班与资源调配。  
+  - 结合患者取消/爽约的预测模型（如XGBoost），减少资源闲置。  
+**（2）重症监护优先级动态调整**  
+- **多模态数据融合**：  
+  - 整合生命体征（如心率、血氧）、实验室指标（如乳酸水平）、影像学数据（如CT扫描），通过深度学习模型（如Transformer）实时计算患者死亡风险评分（如SOFA、APACHE II的AI增强版）。  
+- **动态优先级队列**：  
+  - 使用强化学习（如Deep Q-Network）动态调整ICU床位分配，平衡公平性与救治成功率。  
+  - 结合伦理规则（如年龄、并发症）的约束优化，避免算法偏见。  
+---  
+#### **2. 基于个体数据的动态健康干预**  
+**（1）基因组驱动的精准干预**  
+- **多组学分析**：  
+  - 通过AI（如GNN、贝叶斯网络）整合基因组、蛋白质组和代谢组数据，识别疾病易感性与药物反应标志物。  
+  - 例如：基于BRCA基因突变推荐乳腺癌筛查频率，或根据CYP2C19基因型调整抗血小板药物剂量。  
+- **实时监测与预警**：  
+  - 穿戴设备数据（如ECG、血糖）结合基因组风险，通过联邦学习保护隐私的同时，预警糖尿病或心血管事件。  
+**（2）生活习惯与行为干预**  
+- **个性化推荐系统**：  
+  - 利用强化学习（如Contextual Bandits）动态调整健康建议（如运动、饮食），基于患者依从性反馈优化干预策略。  
+  - 例如：针对高血压患者，结合运动手环数据和膳食记录，推荐最佳降压方案。  
+- **数字孪生建模**：  
+  - 构建患者虚拟模型（如生理模拟器），预测不同干预措施（如戒烟、减重）的长期健康收益，辅助临床决策。  
+---  
+#### **3. 系统实现与伦理考量**  
+- **技术栈**：  
+  - 边缘计算（实时处理穿戴设备数据）+ 云计算（大规模模型训练）+ 区块链（确保数据不可篡改）。  
+- **可解释性**：  
+  - 采用SHAP值、LIME等工具解释AI决策，确保医生与患者信任。  
+- **伦理与合规**：  
+  - 通过差分隐私和联邦学习保护患者数据，遵循GDPR/HIPAA等法规。  
+---  
+**最终目标**：  
+构建一个闭环系统——从资源分配到个体干预，AI持续学习医疗数据流，实现“精准预测→动态优化→效果反馈”的迭代升级，全面提升医疗效率与患者预后。</t>
+  </si>
+  <si>
+    <t>### **智慧医疗系统多学科综合解决方案**  
+#### **1. 医疗数据的高效采集与标准化处理**  
+**人工智能教授**：  
+- **分层采集架构**：边缘计算层预处理数据，中间层异步传输，中心层分布式存储。  
+- **统一标准**：临床数据用HL7 FHIR，影像数据用DICOM，穿戴设备数据用IEEE 11073。  
+- **清洗流程**：规则引擎处理缺失值/异常值，人工复核不确定数据，质量指标（缺失率≤5%）。  
+---  
+#### **2. 人工智能驱动的疾病诊断与预测模型**  
+**人工智能教授**：  
+- **模型构建**：3D CNN处理影像，LSTM处理时序数据，联邦学习解决数据孤岛。  
+- **可解释性**：SHAP值、注意力热图展示模型决策依据。  
+- **小样本泛化**：GAN生成合成数据，元学习（MAML）快速适应新病种。  
+---  
+#### **3. 医疗隐私保护与数据安全共享机制**  
+**人工智能教授**：  
+- **隐私技术**：差分隐私添加噪声，区块链记录访问日志，联邦学习本地训练。  
+- **合规性**：数据分级（匿名/原始），动态访问控制（RBAC+ABE），智能合约自动执行GDPR条款。  
+---  
+#### **4. 智慧医疗系统的临床落地与医工协作**  
+**人工智能教授**：  
+- **人机协同**：AI提供建议+医生终审，交互界面展示置信度与推理路径。  
+- **验证方法**：RCT比较AI组与传统组，真实世界研究监测长期预后。  
+---  
+#### **5. 资源优化与个性化健康管理**  
+**人工智能教授**：  
+- **资源分配**：强化学习优化门诊排程，多模态数据（生命体征+基因组）动态调整ICU优先级。  
+- **健康干预**：基因组+穿戴设备数据推荐个性化方案，数字孪生模拟干预效果。  
+---  
+### **总结**  
+通过多学科协作（数据科学、临床医学、法律合规），智慧医疗系统可实现：  
+- **技术层面**：数据采集效率↑50%，AI模型准确率↑20%；  
+- **应用层面**：门诊等待时间↓40%，患者5年生存率↑15%；  
+- **伦理层面**：100%符合GDPR/HIPAA，隐私攻击风险↓90%。  
+（注：具体参数需根据实施场景调整。）</t>
+  </si>
+  <si>
+    <t>**基于物理学的医疗数据高效采集与标准化处理框架**  
+**1. 问题重构与物理类比**  
+将医疗数据流视为非平衡态热力学系统：  
+- 数据源（如医疗设备、电子病历）对应"热源"（温度梯度）  
+- 数据传输通道对应"输运过程"（热传导/对流）  
+- 数据异构性对应"熵产生"  
+- 标准化处理对应"麦克斯韦妖"式的信息筛选机制  
+**2. 核心创新模型**  
+**2.1 量子化数据采集协议**  
+- 受量子测量理论启发，提出"最小扰动采集准则"：  
+  - 定义数据采集算符 \(\hat{D} = \sum_i p_i|d_i\rangle\langle d_i|\)  
+  - 约束条件：\(\|\hat{D} - \hat{I}\| &lt; \epsilon\)（保持系统原始状态）  
+- 开发自适应采样算法，当数据波动\(\Delta x \geq \hbar_{eff}\)时触发采集（\(\hbar_{eff}\)为系统特征尺度）  
+**2.2 基于重整化群的数据标准化**  
+- 构建k空间数据转换：  
+  \[
+  \tilde{d}(k) = \int d^3x e^{-ik\cdot x}d(x) \quad \text{(傅里叶医疗数据场)}
+  \]  
+- 通过RG流方程消除尺度依赖性：  
+  \[
+  \Lambda\frac{d}{d\Lambda}d_\Lambda = \beta(d_\Lambda)
+  \]  
+- 临界指数分析确定标准格式的普适类  
+**3. 动态协同机制**  
+**3.1 数据-物理混合熵度量**  
+定义：  
+\[
+S_{total} = -k_B\sum p_i\ln p_i + \lambda\|\nabla d\|^2
+\]  
+（第一项为香农熵，第二项为数据梯度惩罚项）  
+**3.2 非马尔可夫传输控制**  
+建立记忆核函数描述数据历史依赖：  
+\[
+\frac{\partial d}{\partial t} = \int_0^t K(t-\tau)\cdot d(\tau)d\tau
+\]  
+核函数\(K(t)\sim t^{-\alpha}\)反映不同医疗设备的记忆效应  
+**4. 与AI的互补性设计**  
+- **前端采集**：物理模型提供约束条件（如采样定理），AI优化具体参数  
+- **中间处理**：RG变换生成多尺度特征，作为深度学习输入  
+- **后端验证**：使用统计物理检验数据一致性（如Ising模型验证关联性）  
+**5. 实施路径**  
+1. 建立医疗数据场论框架（标度律、对称性分析）  
+2. 开发基于李群的数据转换工具（SO(3)处理3D医学影像）  
+3. 设计拓扑数据压缩算法（利用陈数不变量保持关键特征）  
+**6. 预期突破**  
+- 采集效率提升：通过临界慢化预测最优采样频率  
+- 标准化程度：使不同源数据进入同一普适类（误差&lt;5%）  
+- 能耗降低：利用量子隧穿效应减少数据传输功耗  
+该框架首次将统计场论、量子测量与非线性动力学系统应用于医疗数据工程，其核心创新在于将物理系统的涌现规律转化为数据治理的主动调控策略。与纯AI方法相比，具有更好的可解释性和基础稳定性。</t>
+  </si>
+  <si>
+    <t>从化学视角分析医疗数据的高效采集与标准化处理问题，我们可以借鉴分子识别、自组装和反应动力学等核心化学原理，提出以下创新解决方案：  
+### 1. **分子标签系统（Molecular Tagging System）**  
+   - **变量设计**：开发基于生物正交化学（Bioorthogonal Chemistry）的分子标签，用于标记不同来源的医疗数据（如影像、生化指标、基因组数据）。  
+     - **标签变量**：设计可编程的化学基团（如叠氮化物、DBCO），通过点击化学反应（Click Chemistry）实现数据源的快速分类与溯源。  
+     - **动态变量**：引入pH/氧化还原响应型标签，根据数据优先级（如急诊数据）触发差异化处理机制。  
+   - **机制**：通过标签的化学特异性，实现数据采集时的自动分类与标准化，减少人工干预。  
+### 2. **自组装数据框架（Self-assembling Data Framework）**  
+   - **模型构建**：模拟分子自组装（如DNA折纸术）的层级结构，设计模块化数据单元：  
+     - **基础单元**：将原始数据封装为“数据分子”（如JSON/XML格式的化学键合结构）。  
+     - **驱动机制**：通过疏水作用/氢键等非共价相互作用，实现数据单元的自动聚合与标准化整合。  
+   - **互补性**：与AI结合，利用自组装规则生成拓扑结构，优化数据存储与检索效率。  
+### 3. **反应动力学启发的实时处理模型**  
+   - **动态模型**：借鉴酶促反应动力学（Michaelis-Menten方程），建立数据流处理速率方程：  
+     - **变量**：数据输入速率（V&lt;sub&gt;in&lt;/sub&gt;）、标准化酶活性（K&lt;sub&gt;cat&lt;/sub&gt;）、系统容量（K&lt;sub&gt;m&lt;/sub&gt;）。  
+     - **机制**：通过反馈调节（如产物抑制）动态分配计算资源，避免数据过载。  
+   - **AI协同**：用化学动力学参数训练神经网络，预测数据处理瓶颈并提前优化。  
+### 4. **化学信息学驱动的标准化协议**  
+   - **标准化规则**：参考IUPAC命名法，制定医疗数据的“化学式”表示法：  
+     - **示例**：血糖数据可编码为“C&lt;sub&gt;6&lt;/sub&gt;H&lt;sub&gt;12&lt;/sub&gt;O&lt;sub&gt;6&lt;/sub&gt;@t=1h”（葡萄糖+时间戳）。  
+   - **优势**：解决多源数据异构性问题，同时保留化学语义（如分子结构、代谢路径）。  
+### 5. **量子化学计算辅助的数据验证**  
+   - **创新点**：利用密度泛函理论（DFT）模拟生物分子相互作用，生成虚拟标准数据集，用于校准真实医疗数据的合理性（如异常值检测）。  
+### **与AI的互补性**  
+- **化学机制**提供可解释的底层规则（如标签反应路径），而**AI**处理高阶模式（如数据关联性）。  
+- 化学模型可减少AI对标注数据的依赖（如通过自组装生成结构化数据）。  
+此方案从分子尺度重构数据流，为智慧医疗系统提供高精度、低能耗的标准化新范式。</t>
+  </si>
+  <si>
+    <t>从数学视角分析人工智能驱动的疾病诊断与预测模型问题，我们可以从以下几个方面提出创新解决方案，强调与现有AI方法的互补性：  
+### 1. **引入多模态数据融合的数学框架**  
+   - **问题**：现有AI模型通常依赖单一数据模态（如影像或基因数据），缺乏对多源异构数据（影像、基因、电子健康记录、环境因素等）的有效整合。  
+   - **数学创新**：  
+     - **张量分解与高维统计建模**：将多模态数据表示为高维张量（如患者×时间×多模态特征），利用非负张量分解（NTF）或Tucker分解提取潜在特征，解决数据异质性和缺失值问题。  
+     - **图信号处理（GSP）**：将患者数据建模为图结构（节点=患者/特征，边=相似性），通过图傅里叶变换捕捉数据中的拓扑关系，增强模型对复杂关联的建模能力。  
+### 2. **动态系统理论与微分方程建模**  
+   - **问题**：疾病发展是动态过程，而现有深度学习模型（如CNN、RNN）对时序数据的处理缺乏可解释的动力学机制。  
+   - **数学创新**：  
+     - **混合微分方程-神经网络模型**：将疾病进展建模为随机微分方程（SDE），例如：  
+       \[
+       dX_t = f(X_t, \theta)dt + g(X_t, \theta)dW_t
+       \]  
+       其中\(X_t\)为患者状态，\(f\)为确定性动态（由神经网络参数化），\(g\)为随机噪声项。通过SDE的数值解（如Euler-Maruyama方法）生成预测轨迹，同时提供不确定性量化。  
+     - **李雅普诺夫指数分析**：用于评估疾病状态的稳定性，识别临界转变点（如癌症转移前的早期信号）。  
+### 3. **因果推理与反事实预测**  
+   - **问题**：现有模型多为关联性学习，无法区分因果效应（如药物干预的真实影响）。  
+   - **数学创新**：  
+     - **结构因果模型（SCM）**：结合因果图模型与深度生成模型（如GAN或VAE），生成反事实样本（“若患者接受治疗A而非B，结果会如何”）。  
+     - **双重机器学习（Double ML）**：通过正交化损失函数估计因果效应，解决混杂变量偏差问题。  
+### 4. **小样本学习的几何与拓扑方法**  
+   - **问题**：罕见病或新发疾病数据稀缺，传统深度学习易过拟合。  
+   - **数学创新**：  
+     - **最优传输理论（Optimal Transport）**：构建患者数据分布的Wasserstein距离度量，通过生成对抗网络（GAN）在低维流形上实现样本高效迁移。  
+     - **持续同调（Persistent Homology）**：从数据拓扑结构（如基因表达网络的孔洞特征）中提取稳健的疾病标志物。  
+### 5. **不确定性量化的贝叶斯与非参数方法**  
+   - **问题**：AI模型常输出点估计，缺乏对预测可信度的评估。  
+   - **数学创新**：  
+     - **高斯过程（GP）与深度核学习**：将神经网络的最后一层替换为GP层，直接输出预测分布\(p(y|X)\)。  
+     - **Dirichlet过程混合模型**：用于聚类未知的疾病亚型，同时自动确定类别数量。  
+### 6. **模型可解释性的代数与逻辑框架**  
+   - **问题**：黑箱模型难以被临床医生信任。  
+   - **数学创新**：  
+     - **可微逻辑规则学习**：通过神经逻辑网络（如∂-ILP）生成“IF-THEN”规则，例如：  
+       \[
+       \text{IF } (基因X &gt; \alpha) \land (影像特征Y \text{包含病灶}) \text{ THEN } \text{癌症风险}=High
+       \]  
+     - **注意力机制的代数解释**：将Transformer中的注意力权重映射为特征重要性的格（Lattice）结构。  
+### 7. **跨学科协同优化**  
+   - **生物物理约束嵌入**：在损失函数中加入生物可行性约束（如肿瘤生长速率上限），通过拉格朗日乘子法实现硬约束优化。  
+   - **多目标Pareto优化**：平衡模型准确性、计算效率与临床可操作性，使用NSGA-II算法求解最优折衷解。  
+### 互补性说明  
+上述方法并非替代现有AI模型，而是通过数学工具增强其能力：  
+- **与传统深度学习的结合**：例如在ResNet中嵌入微分方程层（Neural ODE），或在图神经网络（GNN）中集成因果推理模块。  
+- **与传统统计的互补**：贝叶斯非参数方法弥补了频率学派假设检验的局限性。  
+这一框架可为智慧医疗系统提供更鲁棒、可解释且动态适应的疾病建模工具。</t>
+  </si>
+  <si>
+    <t>```json
+{
+  "task": "请基于物理学视角，为智慧医疗系统的子问题提供补充性分析，重点突出物理学的独特贡献（如新变量、机制或模型）",
+  "context": "当前主问题为智慧医疗系统，已有子问题包括：1.医疗数据采集与标准化 2.AI疾病诊断模型 3.隐私保护 4.临床落地 5.资源优化。需从物理学角度提出新思路，例如量子计算优化数据加密、生物力学模型辅助诊断等。",
+  "coworker": "物理学教授"
+}
+```</t>
+  </si>
+  <si>
+    <t># **智慧医疗系统研发项目申请书**  
+## **摘要**  
+本项目旨在构建一个基于人工智能的智慧医疗系统，通过整合多模态医疗数据、开发可解释的AI诊断模型、实现隐私保护下的数据共享，并优化临床资源分配，最终提升医疗服务的精准性和效率。系统将采用分层数据采集架构、3D CNN/LSTM模型、联邦学习与区块链技术，并通过真实世界研究验证临床效果。预期成果包括：标准化医疗数据平台、5种以上疾病的高精度AI诊断工具、符合GDPR/HIPAA的隐私保护方案，以及降低20%医疗资源浪费的优化系统。  
+---  
+## **一、研究背景和意义**  
+**背景**：  
+1. **数据孤岛问题**：医疗数据分散于不同机构，格式不统一（如DICOM影像、HL7 FHIR电子病历），导致分析效率低下。  
+2. **AI模型局限性**：现有模型存在小样本泛化能力不足、可解释性差（如黑箱问题）及隐私泄露风险。  
+3. **临床落地挑战**：AI系统与医生协作机制不明确，缺乏标准化验证流程（如RCT与真实世界证据的结合）。  
+**意义**：  
+- **科学层面**：提出多模态数据融合、联邦学习框架下的模型泛化方法，推动可解释AI在医疗领域的理论突破。  
+- **应用层面**：通过隐私保护技术（差分隐私+区块链）实现跨机构数据共享，优化资源分配（如急诊分级），提升个性化健康管理（如数字孪生）。  
+---  
+## **二、研究内容**  
+1. **医疗数据标准化与高效采集**  
+   - 设计分层采集架构（边缘设备→云端），兼容HL7 FHIR/DICOM/IEEE 11073标准。  
+   - 开发自动化数据清洗流程（处理缺失值、异常值、异构数据对齐）。  
+2. **可解释AI诊断与预测模型**  
+   - 开发多模态融合模型（3D CNN处理影像，LSTM分析时序病历），结合联邦学习实现跨机构协作训练。  
+   - 引入SHAP值、注意力热图提升可解释性，应用元学习（MAML）解决小样本问题。  
+3. **隐私保护与安全共享机制**  
+   - 构建基于差分隐私的数据脱敏方案，结合区块链实现审计追踪。  
+   - 设计动态访问控制策略（基于角色/情境的权限管理）与智能合约驱动的数据分级共享。  
+4. **临床落地与医工协作验证**  
+   - 建立人机协同流程（AI生成诊断建议，医生终审并反馈修正信号）。  
+   - 采用混合验证方法（RCT对照试验+真实世界回顾性研究）。  
+5. **资源优化与健康管理**  
+   - 应用强化学习（如DQN）优化医院资源分配（床位、手术室调度）。  
+   - 基于基因组与穿戴设备数据构建个性化数字孪生，实现动态健康干预。  
+---  
+## **三、拟解决的科学问题**  
+1. **多源医疗数据的语义对齐与质量评估**：解决异构数据（影像/文本/传感器）的统一表征问题。  
+2. **小样本下的模型泛化能力**：通过GAN生成合成数据，结合元学习提升罕见病诊断精度。  
+3. **隐私-效用平衡**：在差分隐私噪声注入下保持模型性能（如验证隐私预算ε的临界值）。  
+4. **AI与临床实践的协同机制**：量化医生对AI建议的采纳率及其对诊断效率的影响。  
+---  
+## **四、技术路线**  
+| **研究内容**               | **技术方法**                                                                 |  
+|----------------------------|-----------------------------------------------------------------------------|  
+| 数据标准化                 | HL7 FHIR/DICOM转换器，基于规则引擎的清洗流水线（如Apache NiFi）。            |  
+| AI诊断模型                 | 3D CNN（ResNet-50架构）+ LSTM（Bi-directional），联邦学习（PySyft框架）。    |  
+| 可解释性                   | SHAP值分析（TreeSHAP用于非影像数据），注意力热图可视化（Grad-CAM）。         |  
+| 隐私保护                   | 差分隐私（TensorFlow Privacy库），Hyperledger Fabric区块链存证。             |  
+| 临床验证                   | 多中心RCT（双盲设计），真实世界数据（EMR+穿戴设备）回顾分析。                |  
+| 资源优化                   | 强化学习（Proximal Policy Optimization），数字孪生（NVIDIA Omniverse平台）。 |  
+---  
+## **五、预期成果**  
+1. **理论成果**：  
+   - 发表SCI论文10+篇（涵盖AI可解释性、联邦学习优化、医疗隐私保护方向）。  
+   - 形成《智慧医疗系统数据标准与隐私保护白皮书》。  
+2. **技术成果**：  
+   - 开源多模态医疗数据集（覆盖10万+病例，脱敏处理）。  
+   - 5种疾病AI诊断模型（准确率&gt;95%，AUC&gt;0.97），获CFDA/FDA认证。  
+3. **应用成果**：  
+   - 落地3家三甲医院，缩短诊断时间30%，降低误诊率至&lt;5%。  
+   - 资源优化系统减少20%医疗浪费（如检验重复率）。  
+---  
+## **六、创新点**  
+1. **跨模态联邦学习框架**：首次将3D CNN与联邦学习结合，支持跨机构协作训练而不共享原始数据。  
+2. **动态隐私保护**：根据数据敏感度自适应调整差分隐私参数（如影像ε=0.1，文本ε=0.5）。  
+3. **数字孪生驱动健康管理**：整合基因组数据与实时传感器反馈，实现个性化干预闭环。  
+---  
+**备注**：本项目预算需涵盖GPU集群（用于联邦学习训练）、区块链节点部署及多中心临床试验费用，总周期3年。</t>
   </si>
 </sst>
 </file>
@@ -674,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,13 +945,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -713,13 +959,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -727,13 +973,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -741,13 +987,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -755,13 +1001,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -769,13 +1015,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -783,13 +1029,111 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
-        <v>19</v>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/formated_outputs/execution_log/crossdisc/deepseek-v3/deepseek-v3-智慧医疗系统.xlsx
+++ b/formated_outputs/execution_log/crossdisc/deepseek-v3/deepseek-v3-智慧医疗系统.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>task_key</t>
+  </si>
   <si>
     <t>task_name</t>
   </si>
@@ -28,6 +34,90 @@
     <t>answer</t>
   </si>
   <si>
+    <t>2025-04-16 00:26:47</t>
+  </si>
+  <si>
+    <t>2025-04-16 00:28:03</t>
+  </si>
+  <si>
+    <t>2025-04-16 00:33:49</t>
+  </si>
+  <si>
+    <t>2025-04-16 00:41:23</t>
+  </si>
+  <si>
+    <t>2025-04-16 00:46:07</t>
+  </si>
+  <si>
+    <t>2025-04-16 00:50:23</t>
+  </si>
+  <si>
+    <t>2025-04-16 00:57:04</t>
+  </si>
+  <si>
+    <t>2025-04-16 00:59:27</t>
+  </si>
+  <si>
+    <t>2025-04-16 01:02:51</t>
+  </si>
+  <si>
+    <t>2025-04-16 01:06:29</t>
+  </si>
+  <si>
+    <t>2025-04-16 01:11:27</t>
+  </si>
+  <si>
+    <t>2025-04-16 01:12:10</t>
+  </si>
+  <si>
+    <t>2025-04-16 01:19:34</t>
+  </si>
+  <si>
+    <t>2025-04-16 01:26:05</t>
+  </si>
+  <si>
+    <t>022cf09b6ecb3c6a9bf812a065c9f0f4</t>
+  </si>
+  <si>
+    <t>8ac72090d8264f92172d2b41552ce941</t>
+  </si>
+  <si>
+    <t>f1e1cc76af0bd3d6442c62434162791f</t>
+  </si>
+  <si>
+    <t>0ec50e6f34e855a56361e7e1b6f319d2</t>
+  </si>
+  <si>
+    <t>aa9cf139e25d68aeeeef8a2cc918a2de</t>
+  </si>
+  <si>
+    <t>d031441ebd6ba87313fa43bc5a14f944</t>
+  </si>
+  <si>
+    <t>a68e23e69e9b65ad70bba00b12f3abe8</t>
+  </si>
+  <si>
+    <t>067f048754ae701ced3c93bd1d6fd8c5</t>
+  </si>
+  <si>
+    <t>0880837a1e403178e91362cd2afb17ea</t>
+  </si>
+  <si>
+    <t>040ec8fb4ae25c19a6a709b3a900205f</t>
+  </si>
+  <si>
+    <t>b45587849ee34901c4e22d3a7b81a523</t>
+  </si>
+  <si>
+    <t>75fab2a4a2a24dbec5dc4bad797a2e15</t>
+  </si>
+  <si>
+    <t>ff033594b1d906f732104c401900a0cf</t>
+  </si>
+  <si>
+    <t>82dcfed515878c13f4731ee21559d9bd</t>
+  </si>
+  <si>
     <t>Decompose_Problem_Into_Subtasks</t>
   </si>
   <si>
@@ -40,23 +130,19 @@
     <t>Final_Solution_Proposal</t>
   </si>
   <si>
-    <t xml:space="preserve">人工智能教授
-</t>
+    <t>人工智能教授</t>
   </si>
   <si>
     <t>Crew Manager</t>
   </si>
   <si>
-    <t xml:space="preserve">物理学教授
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">化学教授
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数学教授
-</t>
+    <t>物理学教授</t>
+  </si>
+  <si>
+    <t>化学教授</t>
+  </si>
+  <si>
+    <t>数学教授</t>
   </si>
   <si>
     <t>提炼出智慧医疗系统的3-5个核心子问题</t>
@@ -920,13 +1006,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,201 +1025,291 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
